--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\ChargeControllerWithMPPT\Hardware\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\mppt-2420\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348148A-3C32-47DD-8A4A-A1B83B6E2FB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4833708-D0F8-4BB9-8BFE-C6421C9C420A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21630" windowHeight="15435" xr2:uid="{D73EB0D6-555A-49AE-BD51-D8A80D670304}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{75823794-794F-4E55-93FC-361FE20431D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Solar Charger" sheetId="1" r:id="rId1"/>
+    <sheet name="mppt-2420" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Solar Charger'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'mppt-2420'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="302">
   <si>
     <t>Designator</t>
   </si>
@@ -56,7 +56,130 @@
     <t>HelpURL</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1, C6, C11, C14, C15, C22, C28, C34, C36, C38, C39, C40, C41, C44, C45, C49</t>
+  </si>
+  <si>
+    <t>0.1μF</t>
+  </si>
+  <si>
+    <t>CL10B104KB8WPND</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8WPND/1276-CL10B104KB8WPNDCT-ND/11488014</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>2.7pF</t>
+  </si>
+  <si>
+    <t>CL10C2R7CB81PNC</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 2.7pF, NPO, ±0.25pF, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10C2R7CB81PNC/1276-6554-1-ND/5961413</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>CL10C4R7BB8NNNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 4.7pF, NPO, ±0.1pF, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10C4R7BB8NNNC/1276-1792-1-ND/3889878</t>
+  </si>
+  <si>
+    <t>C4, C5, C13, C35, C37, C43</t>
+  </si>
+  <si>
+    <t>4.7μF</t>
+  </si>
+  <si>
+    <t>CL10B475KQ8NQNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 4.7μF, X7R, ±10%, 6.3V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B475KQ8NQNC/3887745</t>
+  </si>
+  <si>
+    <t>C7, C23, C29, C31, C33, C42</t>
+  </si>
+  <si>
+    <t>0.01μF</t>
+  </si>
+  <si>
+    <t>CL10B103KB8NNNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B103KB8NNNC/1276-1009-1-ND/3889095</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>2.2μF</t>
+  </si>
+  <si>
+    <t>CL32B225KCJSNNE</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 2.2μF, X7R, ±10%, 100V, 1210, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B225KCJSNNE/3889020</t>
+  </si>
+  <si>
+    <t>C9, C12, C48</t>
+  </si>
+  <si>
+    <t>1μF</t>
+  </si>
+  <si>
+    <t>CL10B105KA8NNNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 1μF, X7R, ±10%, 25V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B105KA8NNNC/1276-1184-1-ND/3889270</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>22μF</t>
+  </si>
+  <si>
+    <t>CL32B226KOJNNNE</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 22μF, X7R, ±10%, 16V, 1210, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL32B226KOJNNNE/3887513</t>
+  </si>
+  <si>
+    <t>C16</t>
   </si>
   <si>
     <t>0.47μF</t>
@@ -65,25 +188,25 @@
     <t>CL21B474KAFNNNG</t>
   </si>
   <si>
-    <t>Samsung</t>
+    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 805, -55...+125°C</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B474KAFNNNG/1276-6480-1-ND/5958108</t>
   </si>
   <si>
-    <t>C2, C20, C27, C36</t>
-  </si>
-  <si>
-    <t>2.2μF</t>
+    <t>C17</t>
   </si>
   <si>
     <t>CL21B225KAFNFNE</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 2.2μF, X7R, ±10%, 25V, 805, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B225KAFNFNE/1276-2953-1-ND/3891039</t>
   </si>
   <si>
-    <t>C3, C4, C5, C6</t>
+    <t>C18, C19, C20, C21</t>
   </si>
   <si>
     <t>330μF</t>
@@ -101,31 +224,7 @@
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/35SEK330M/P122629-ND/8030545</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>1μF</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNG</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B105KBFNNNG/1276-6470-1-ND/5958098</t>
-  </si>
-  <si>
-    <t>C8, C13, C15, C17, C18, C19, C35, C43</t>
-  </si>
-  <si>
-    <t>0.01μF</t>
-  </si>
-  <si>
-    <t>CL21B103KBANNNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B103KBANNNC/1276-1015-1-ND/3889101</t>
-  </si>
-  <si>
-    <t>C9, C10, C11, C12</t>
+    <t>C24, C25, C26, C27</t>
   </si>
   <si>
     <t>68μF</t>
@@ -140,81 +239,84 @@
     <t>https://www.digikey.com/products/en?keywords=63SXE68M</t>
   </si>
   <si>
-    <t>C14, C16</t>
-  </si>
-  <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>CL21B471KBANNNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B471KBANNNC/1276-1300-1-ND/3889386</t>
-  </si>
-  <si>
-    <t>C21, C22, C31</t>
-  </si>
-  <si>
-    <t>10μF</t>
-  </si>
-  <si>
-    <t>CL21B106KQQNNNG</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B106KQQNNNG/1276-6474-1-ND/5958102</t>
-  </si>
-  <si>
-    <t>C23, C24, C30, C32, C33, C34, C37, C38, C41, C42</t>
-  </si>
-  <si>
-    <t>0.1μF</t>
-  </si>
-  <si>
-    <t>CL21B104KBCNFNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B104KBCNFNC/1276-2444-1-ND/3890530</t>
-  </si>
-  <si>
-    <t>C25, C26</t>
-  </si>
-  <si>
-    <t>CL31B105KCHSNNE</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 1μF, X7R, ±10%, 100V, 1206, -55...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL31B105KCHSNNE/1276-2747-1-ND/3890833</t>
-  </si>
-  <si>
-    <t>C28, C29</t>
-  </si>
-  <si>
-    <t>CL31B106KAHNNNE</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 10μF, X7R, ±10%, 25V, 1206, -55...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL31B106KAHNNNE/1276-1804-1-ND/3889890</t>
-  </si>
-  <si>
-    <t>C39, C40</t>
+    <t>C30, C32</t>
+  </si>
+  <si>
+    <t>220pF</t>
+  </si>
+  <si>
+    <t>CL10B221KB8NFNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 220pF, X7R, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B221KB8NFNC/1276-1986-1-ND/3890072</t>
+  </si>
+  <si>
+    <t>C46, C47</t>
   </si>
   <si>
     <t>12pF</t>
   </si>
   <si>
-    <t>CL21C120JBANNNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21C120JBANNNC/1276-1120-1-ND/3889206</t>
+    <t>CL10C120JB8NNNC</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 12pF, NPO, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10C120JB8NNNC/1276-1254-1-ND/3889340</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
+    <t>ESP32-PICO-D4</t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
+  </si>
+  <si>
+    <t>IC RF transceiver, 802.11b/g/n + Bluetooth v4.2, 2.4GHz, 32-Bit, Xtensa LX6, 4Mb, 520KB, 2.7...3.6V, -40...+85°C, 48-LGA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/espressif-systems/ESP32-PICO-D4/1904-1029-1-ND/9381738</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LM5017SD/NOPB</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>DC/DC buck converter, input 7.5...100V, 1MHz, output 1.225...90V, 0.6A, -40...+125°C, 8-WSON</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/LM5017SD-NOPB/LM5017SD-NOPBCT-ND/3137455</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>AP63200WU-7</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>DC/DC buck converter, input 3.8...32V, 500kHz, output 1.2...12V, 2A, -40...+85°C, SOT23-6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/AP63200WU-7/9858423</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>NCP5183DR2G</t>
   </si>
   <si>
@@ -227,7 +329,7 @@
     <t>https://www.digikey.com/product-detail/en/on-semiconductor/NCP5183DR2G/NCP5183DR2GOSCT-ND/7066807</t>
   </si>
   <si>
-    <t>D2, D3</t>
+    <t>D5, D6</t>
   </si>
   <si>
     <t>TSV991ILT</t>
@@ -242,51 +344,6 @@
     <t>https://www.digikey.com/product-detail/en/stmicroelectronics/TSV991ILT/497-6001-1-ND/1578484</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>AP3211KTR-G1</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>DC/DC buck converter, input 4.5...18V, 1.4MHz, output 0.81...15V, 1.5A, -40...+85°C, SOT23-6</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP3211KTR-G1/AP3211KTR-G1DICT-ND/4505305</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LM5017SD/NOPB</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>DC/DC buck converter, input 7.5...100V, 1MHz, output 1.225...90V, 0.6A, -40...+125°C, 8-WSON</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/texas-instruments/LM5017SD-NOPB/LM5017SD-NOPBCT-ND/3137455</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>ESP32-PICO-D4</t>
-  </si>
-  <si>
-    <t>Espressif Systems</t>
-  </si>
-  <si>
-    <t>IC RF transceiver, 802.11b/g/n + Bluetooth v4.2, 2.4GHz, 32-Bit, Xtensa LX6, 4Mb, 520KB, 2.7...3.6V, -40...+85°C, 48-LGA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/espressif-systems/ESP32-PICO-D4/1904-1029-1-ND/9381738</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
@@ -296,7 +353,7 @@
     <t>IC microcontroller, 32-Bit, Cortex-M4, 72MHz, 16KB, 12KB, 2...3.6V, -40...+85°C, 48-LQFP</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=STM32F334C4T6</t>
+    <t>https://www.digikey.com/en/products/detail/stmicroelectronics/STM32F334C4T6/4989170?s=N4IgTCBcDaIMoBUCyBmMAxFKAsBhbCAbCALoC%2BQA</t>
   </si>
   <si>
     <t>D8</t>
@@ -329,6 +386,60 @@
     <t>L1</t>
   </si>
   <si>
+    <t>1.6nH</t>
+  </si>
+  <si>
+    <t>LQW18AS1N6J0ZD</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 1.6nH, ±5%, 603, 700mA, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics/LQW18AS1N6J0ZD/490-15806-1-ND/6800471</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>220μH</t>
+  </si>
+  <si>
+    <t>SDR0805-221KL</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 220μH, ±10%, SDR0805, 490mA, -40...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/bourns-inc/SDR0805-221KL/SDR0805-221KLCT-ND/2127164</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>4.7μH</t>
+  </si>
+  <si>
+    <t>CD32YP0302-4R7M</t>
+  </si>
+  <si>
+    <t>YJYCOIN</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 4.7μH, ±20%, CD32 series, 1.5A, -40...+125°C</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_YJYCOIN-CD32YP0302-4R7M_C492259.html</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
     <t>40μH</t>
   </si>
   <si>
@@ -344,55 +455,115 @@
     <t>http://ferrite.ru/warehouse/r-32-820-110-7-77548-a7.html</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>4.7μH</t>
-  </si>
-  <si>
-    <t>SDR0403-4R7ML</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>Fixed inductor, 4.7μH, ±20%, SDR0403, 1.7A, -40...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/SDR0403-4R7ML/SDR0403-4R7MLCT-ND/2127096</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>220μH</t>
-  </si>
-  <si>
-    <t>SDR0805-221KL</t>
-  </si>
-  <si>
-    <t>Fixed inductor, 220μH, ±10%, SDR0805, 490mA, -40...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/SDR0805-221KL/SDR0805-221KLCT-ND/2127164</t>
-  </si>
-  <si>
-    <t>L4</t>
+    <t>L5</t>
   </si>
   <si>
     <t>10μH</t>
   </si>
   <si>
-    <t>LQM21DH100M70L</t>
-  </si>
-  <si>
-    <t>Murata Electronics</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/murata-electronics/LQM21DH100M70L/490-18463-1-ND/10135474</t>
-  </si>
-  <si>
-    <t>R1, R2, R4</t>
+    <t>LQM18FN100M00D</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 10μH, ±20%, 603, 50mA, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/LQM18FN100M00D/490-4025-1-ND/1016285</t>
+  </si>
+  <si>
+    <t>R1, R2, R5, R8, R9, R12, R16, R17, R21, R22, R24, R28, R33, R34, R48, R50, R52</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>AC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Resistor film, 10k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/AC0603FR-0710KL/2827814</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>499k</t>
+  </si>
+  <si>
+    <t>RC0603FR-07499KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 499k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-07499KL/727267?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ACwCcxA0gDIgC6AvkA</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>91k</t>
+  </si>
+  <si>
+    <t>RC0603FR-0791KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 91k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0791KL/727428?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AJwCMA0gDIgC6AvkA</t>
+  </si>
+  <si>
+    <t>R6, R31, R32, R37, R40, R43, R45, R46, R47, R54, R55, R57, R58, R60, R61, R63, R64</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 1k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071KL/311-1-00KHRCT-ND/729790</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>88k7</t>
+  </si>
+  <si>
+    <t>RC0603FR-0788K7L</t>
+  </si>
+  <si>
+    <t>Resistor film, 88k7, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0788K7L/727415?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AByEDS%2BAMiALoC%2BQA</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>30k9</t>
+  </si>
+  <si>
+    <t>RC0603FR-0730K9L</t>
+  </si>
+  <si>
+    <t>Resistor film, 30k9, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0730K9L/727144</t>
+  </si>
+  <si>
+    <t>R13, R15</t>
   </si>
   <si>
     <t>2R4</t>
@@ -401,25 +572,55 @@
     <t>RC0805JR-072R4L</t>
   </si>
   <si>
-    <t>Yageo</t>
+    <t>Resistor film, 2R4, ±5%, 805, 0.125W, -55...+125°C</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-072R4L/311-2.4ARCT-ND/731220</t>
   </si>
   <si>
-    <t>R3, R5, R6, R8, R12, R14, R32, R40, R41, R42</t>
-  </si>
-  <si>
-    <t>10k</t>
+    <t>R14, R19, R26</t>
   </si>
   <si>
     <t>RC0805JR-0710KL</t>
   </si>
   <si>
+    <t>Resistor film, 10k, ±5%, 805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-0710KL/311-10KARCT-ND/731188</t>
   </si>
   <si>
-    <t>R7, R13</t>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>39k</t>
+  </si>
+  <si>
+    <t>RC0603FR-0739KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 39k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-0739KL/727195?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgJwDSAMiALoC%2BQA</t>
+  </si>
+  <si>
+    <t>R20, R23, R27, R35, R41, R49, R51, R53, R56, R59, R62</t>
+  </si>
+  <si>
+    <t>120R</t>
+  </si>
+  <si>
+    <t>RC0603JR-07120RL</t>
+  </si>
+  <si>
+    <t>Resistor film, 120R, ±5%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07120RL/311-120GRCT-ND/729653</t>
+  </si>
+  <si>
+    <t>R25</t>
   </si>
   <si>
     <t>100k</t>
@@ -428,169 +629,73 @@
     <t>RC0805FR-07100KL</t>
   </si>
   <si>
+    <t>Resistor film, 100k, ±1%, 805, 0.125W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-07100KL/311-100KCRCT-ND/730491</t>
   </si>
   <si>
-    <t>R9, R10</t>
-  </si>
-  <si>
-    <t>24k</t>
-  </si>
-  <si>
-    <t>RC0805FR-0724KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0724KL/311-24.0KCRCT-ND/730703</t>
-  </si>
-  <si>
-    <t>R11, R20, R26, R45, R46, R47</t>
-  </si>
-  <si>
-    <t>120R</t>
-  </si>
-  <si>
-    <t>RC0805JR-07120RL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-07120RL/311-120ARCT-ND/731194</t>
-  </si>
-  <si>
-    <t>R15, R19, R30, R31</t>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>5k1</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>Resistor film, 5k1, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC0603FR-075K1L/727268?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AKwDSAjADIgC6AvkA</t>
+  </si>
+  <si>
+    <t>R30, R38, R39, R44</t>
   </si>
   <si>
     <t>75k</t>
   </si>
   <si>
-    <t>RC0805FR-0775KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0775KL/311-75.0KCRCT-ND/731080</t>
-  </si>
-  <si>
-    <t>R16, R49</t>
-  </si>
-  <si>
-    <t>5k1</t>
-  </si>
-  <si>
-    <t>RC0805FR-075K1L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-075K1L/311-5.10KCRCT-ND/730935</t>
-  </si>
-  <si>
-    <t>R17, R18, R22, R23, R24, R25, R28, R29</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-071KL/311-1.00KCRCT-ND/730391</t>
-  </si>
-  <si>
-    <t>R21, R27</t>
-  </si>
-  <si>
-    <t>0R004</t>
-  </si>
-  <si>
-    <t>CRE2512-FZ-R004E-3</t>
-  </si>
-  <si>
-    <t>Resistor film, 0R004, ±1%, 2512, 5W, -55...+170°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/CRE2512-FZ-R004E-3/CRE2512-FZ-R004E-3DKR-ND/4900078</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>30k9</t>
-  </si>
-  <si>
-    <t>RC0805FR-0730K9L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0730K9L/311-30.9KCRCT-ND/730794</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>499k</t>
-  </si>
-  <si>
-    <t>RC0805FR-07499KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-07499KL/311-499KCRCT-ND/730934</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>91k</t>
-  </si>
-  <si>
-    <t>RC0805FR-0791KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0791KL/311-91.0KCRCT-ND/731149</t>
-  </si>
-  <si>
-    <t>R36, R38, R39</t>
-  </si>
-  <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0710KL/311-10.0KCRCT-ND/730482</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>88k7</t>
-  </si>
-  <si>
-    <t>RC0805FR-0788K7L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-0788K7L/311-88.7KCRCT-ND/731128</t>
-  </si>
-  <si>
-    <t>R43, R44</t>
-  </si>
-  <si>
-    <t>2k2</t>
-  </si>
-  <si>
-    <t>RC0805JR-072K2L</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-072K2L/311-2.2KARCT-ND/731218</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>B57401V2472J062</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/tdk-electronics-inc/B57401V2472J062/495-7444-1-ND/6073136</t>
-  </si>
-  <si>
-    <t>VD1, VD3, VD4</t>
+    <t>AC0603FR-0775KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 75k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/AC0603FR-0775KL/5896284</t>
+  </si>
+  <si>
+    <t>R36, R42</t>
+  </si>
+  <si>
+    <t>0R002</t>
+  </si>
+  <si>
+    <t>PA2512FKM7W0R002E</t>
+  </si>
+  <si>
+    <t>Resistor film, 0R002, ±1%, 2512, 2W, -55...+170°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/PA2512FKM7W0R002E/9696342</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>PTS636 SM43</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>Tactile button, 6x3.5mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/c-k/PTS636-SM43-SMTR-LFS/CKN12310-1-ND/10071745</t>
+  </si>
+  <si>
+    <t>VD1, VD5</t>
   </si>
   <si>
     <t>MBR2H100SFT3G</t>
@@ -602,7 +707,22 @@
     <t>https://www.digikey.com/product-detail/en/on-semiconductor/MBR2H100SFT3G/MBR2H100SFT3GOSCT-ND/3462288</t>
   </si>
   <si>
-    <t>VD2</t>
+    <t>VD2, VD3, VD7</t>
+  </si>
+  <si>
+    <t>150060VS75000</t>
+  </si>
+  <si>
+    <t>Wurth</t>
+  </si>
+  <si>
+    <t>LED, 20mA, 2V, 603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060VS75000/732-4980-1-ND/4489904</t>
+  </si>
+  <si>
+    <t>VD6</t>
   </si>
   <si>
     <t>MMSZ5245BT1G</t>
@@ -614,7 +734,19 @@
     <t>https://www.digikey.com/product-detail/en/on-semiconductor/MMSZ5245BT1G/MMSZ5245BT1GOSCT-ND/1139899</t>
   </si>
   <si>
-    <t>VD5</t>
+    <t>VD8, VD11, VD13, VD14, VD15</t>
+  </si>
+  <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
+    <t>LED, 20 mA, 2V, 603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060RS75000/732-4978-1-ND/4489899</t>
+  </si>
+  <si>
+    <t>VD9</t>
   </si>
   <si>
     <t>ESDCAN06-2BLY</t>
@@ -626,19 +758,40 @@
     <t>https://www.digikey.com/product-detail/en/stmicroelectronics/ESDCAN06-2BLY/497-19090-1-ND/10057130</t>
   </si>
   <si>
-    <t>VT1, VT2, VT4</t>
-  </si>
-  <si>
-    <t>IAUT150N10S5N035ATMA1</t>
+    <t>VD10</t>
+  </si>
+  <si>
+    <t>150060BS75000</t>
+  </si>
+  <si>
+    <t>LED, 20mA, 3.2V, 603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060BS75000/732-4966-1-ND/4489893</t>
+  </si>
+  <si>
+    <t>VD12</t>
+  </si>
+  <si>
+    <t>150060YS75000</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060YS75000/732-4981-1-ND/4489907</t>
+  </si>
+  <si>
+    <t>VT1, VT2, VT4, VT6</t>
+  </si>
+  <si>
+    <t>IPP086N10N3GXKSA1</t>
   </si>
   <si>
     <t>Infineon Technologies</t>
   </si>
   <si>
-    <t>MOSFET N-channel transistor, 100V, 150A, 87nC, 166W, 3.5mOhm, 6110pF, 8-HSOF, -55...+175°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IAUT150N10S5N035ATMA1/IAUT150N10S5N035ATMA1CT-ND/8818779</t>
+    <t>MOSFET N-channel transistor, 100V, 80A, 55nC, 125W, 8.6mOhm, 3980pF, TO-220, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/infineon-technologies/IPP086N10N3GXKSA1/2081155</t>
   </si>
   <si>
     <t>VT3</t>
@@ -653,7 +806,61 @@
     <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRLML0030TRPBF/IRLML0030TRPBFCT-ND/2202231</t>
   </si>
   <si>
-    <t>X1, X2</t>
+    <t>VT5</t>
+  </si>
+  <si>
+    <t>BSS315PH6327XTSA1</t>
+  </si>
+  <si>
+    <t>MOSFET P-channel transistor, 30V, 1.5A, 2.3nC, 500mW, 150mOhm, 282pF, SOT-23, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/infineon-technologies/BSS315PH6327XTSA1/2783468</t>
+  </si>
+  <si>
+    <t>VT7</t>
+  </si>
+  <si>
+    <t>BC847CLT1G</t>
+  </si>
+  <si>
+    <t>NPN transistor, 45V, 100mA, 100MHz, 300mW, 0.6V, 420, SOT-23, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/BC847CLT1G/BC847CLT1GOSCT-ND/917836</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>SM06B-GHS</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>Connector, 6pin, 1.25mm, 50VDC, 1A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SM06B-GHS-TB-LF-SN/455-1568-1-ND/807836</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT(01)</t>
+  </si>
+  <si>
+    <t>Hirose Electric</t>
+  </si>
+  <si>
+    <t>Connector u.FL, 50 Ohm, 6GHz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/hirose-electric-co-ltd/U.FL-R-SMT-01/H9161-ND/513010</t>
+  </si>
+  <si>
+    <t>X3, X4</t>
   </si>
   <si>
     <t>XT60PW-M</t>
@@ -668,45 +875,51 @@
     <t>https://lcsc.com/product-detail/Connectors_Changzhou-Amass-Elec-XT60PW-M_C98732.html</t>
   </si>
   <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT(01)</t>
-  </si>
-  <si>
-    <t>Hirose Electric</t>
-  </si>
-  <si>
-    <t>Connector u.FL, 50 Ohm, 6GHz</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/hirose-electric-co-ltd/U.FL-R-SMT-01/H9161-ND/513010</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>SM04B-GHS</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>Connector, 4pin, 1.25mm, 50VDC, 1A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SM04B-GHS-TB-LF-SN/455-1566-1-ND/807834</t>
-  </si>
-  <si>
-    <t>X5</t>
+    <t>X5, X6</t>
+  </si>
+  <si>
+    <t>CWF-2</t>
+  </si>
+  <si>
+    <t>Connfly</t>
+  </si>
+  <si>
+    <t>Connector, 2pin, 2.54mm, 250VAC, 3A</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/cwf-2</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>SM05B-GHS</t>
+  </si>
+  <si>
+    <t>Connector, 5pin, 1.25mm, 50VDC, 1A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SM05B-GHS-TB-LF-SN/455-1567-1-ND/807835</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>CWF-4</t>
+  </si>
+  <si>
+    <t>Connector, 4pin, 2.54mm, 250VAC, 3A</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/cwf-4</t>
+  </si>
+  <si>
+    <t>X9</t>
   </si>
   <si>
     <t>615008137421</t>
   </si>
   <si>
-    <t>Wurth</t>
-  </si>
-  <si>
     <t>Etherner RJ-45 connector</t>
   </si>
   <si>
@@ -726,78 +939,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-80-12-33-JGN-TR/50-ECS-80-12-33-JGN-CT-ND/10478769</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 2.2μF, X7R, ±10%, 25V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 1μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 470pF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 10μF, X7R, ±10%, 6.3V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 12pF, NPO, ±5%, 50V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Fixed inductor, 10μH, ±20%, 0805, 250mA, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 2R4, ±5%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 10k, ±5%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 100k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 24k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 120R, ±5%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 75k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 5k1, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 1k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 30k9, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 499k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 91k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 10k, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 88k7, ±1%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 2k2, ±5%, 0805, 0.125W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>NTC resistor, 4k7, ±5%, 0805, 3650K, -55...+125°C</t>
   </si>
 </sst>
 </file>
@@ -814,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,7 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1150,7 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,25 +1193,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,29 +1527,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36274519-02A6-4442-8489-457AFA64C0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A39343-8F4F-48B0-AE8E-6474AB754003}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="107.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="126.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="137" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1436,13 +1582,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -1459,1086 +1605,1320 @@
         <v>14</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>104</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>241</v>
+        <v>138</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="E33" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E47" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
